--- a/Lista de Archivos.xlsx
+++ b/Lista de Archivos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Python\Scripts\Nacional-Fixer-Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB3867-61E8-4B7A-821E-D6B0F795AE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD45EB4-59FD-4ACA-AA0B-35450A256E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -86,7 +89,106 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Tolerancia del Rango a redondear hacia el Total</t>
+Tolerancia del Rango a redondear hacia el Total. Si el vacío el programa toma 0,05.
+Ej; si la diferencia entre campos y el Total es menor a 0,05 este pasa a tomar el valor de la sumatoria de valores</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{79E335B2-6137-4C33-9580-11679352F51C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Directorio + Nombre del archivo a guardar. Si se pone el mismo nombre del de la columna Archivo, este Reemplaza el Archivo Original.
+Si no existe el Directorio lo crea
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1AC9B78C-8411-4A3D-8BE0-DBA597EEFBAD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Columna Auxiliar que se puede usar para concatenar en la creación de Archivos de Entrada y Salida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C98A9AC3-57F6-4999-8036-06359EEE3D0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Columna Auxiliar que se puede usar para concatenar en la creación de Archivos de Entrada y Salida</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{217979A0-CED1-46B0-A07B-0EAA4F33DF6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Columna Auxiliar que se puede usar para concatenar en la creación de Archivos de Entrada y Salida</t>
         </r>
       </text>
     </comment>
@@ -95,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Archivo</t>
   </si>
@@ -127,29 +229,41 @@
     <t>SI</t>
   </si>
   <si>
-    <t>C:\Users\ABP\Desktop\Test\comprobantes_consulta_csv_emitidos_1515271_30650940667_20231019-0005 (montos expresados en pesos).csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\comprobantes_consulta_csv_recibidos_1515232_30650940667_20231019-0004 (montos expresados en pesos).csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\Test.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\Test Procesado.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\Test Procesado 2.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\Test Procesado 3.csv</t>
+    <t>C:\Users\ABP\Desktop\Test\PIVA\comprobantes_compras.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\PIVA\comprobantes_ventas.csv</t>
+  </si>
+  <si>
+    <t>PORTAL IVA</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Mis Comrpobantes Emitidos.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Mis Comrpobantes Recibidos.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado 1.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado 2.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado PIVA 3.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado PIVA 4.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +305,15 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,15 +357,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,22 +653,25 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -547,21 +683,23 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.05</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -569,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -577,9 +715,11 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.05</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -587,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -595,35 +735,47 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.1</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -633,7 +785,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -643,7 +795,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -653,7 +805,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -663,7 +815,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -673,7 +825,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -683,7 +835,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -693,7 +845,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -703,7 +855,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -713,7 +865,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -723,7 +875,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -733,7 +885,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -743,7 +895,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -753,7 +905,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -763,7 +915,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -773,7 +925,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -783,7 +935,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -793,7 +945,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -803,7 +955,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -813,7 +965,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -823,7 +975,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -833,7 +985,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -843,7 +995,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -853,7 +1005,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -863,7 +1015,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -873,7 +1025,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -883,7 +1035,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="5"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -893,7 +1045,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -903,7 +1055,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -913,7 +1065,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="B35" s="5"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -923,7 +1075,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -933,7 +1085,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -943,7 +1095,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -953,7 +1105,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -963,7 +1115,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -973,7 +1125,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -983,7 +1135,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -993,7 +1145,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1003,7 +1155,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1013,7 +1165,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1023,7 +1175,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1033,7 +1185,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1043,7 +1195,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1053,7 +1205,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1063,7 +1215,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1073,7 +1225,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1083,7 +1235,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1093,7 +1245,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1103,7 +1255,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1113,7 +1265,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1123,7 +1275,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1133,7 +1285,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1143,7 +1295,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1153,7 +1305,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1163,7 +1315,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1173,7 +1325,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1183,7 +1335,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1193,7 +1345,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1203,7 +1355,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1213,7 +1365,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1223,7 +1375,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="5"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -1233,7 +1385,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1243,7 +1395,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1253,7 +1405,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="5"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -1263,7 +1415,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
+      <c r="B70" s="5"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -1273,7 +1425,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
+      <c r="B71" s="5"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -1283,7 +1435,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="B72" s="5"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -1293,7 +1445,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
+      <c r="B73" s="5"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -1303,7 +1455,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="B74" s="5"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -1313,7 +1465,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
+      <c r="B75" s="5"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -1323,7 +1475,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -1333,7 +1485,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
+      <c r="B77" s="5"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -1343,7 +1495,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -1353,7 +1505,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
+      <c r="B79" s="5"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -1363,7 +1515,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
+      <c r="B80" s="5"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -1373,7 +1525,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -1383,7 +1535,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
+      <c r="B82" s="5"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -1393,7 +1545,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="B83" s="5"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -1403,7 +1555,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -1413,7 +1565,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -1423,7 +1575,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -1433,7 +1585,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
+      <c r="B87" s="5"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -1443,7 +1595,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
+      <c r="B88" s="5"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -1453,7 +1605,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -1463,7 +1615,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
+      <c r="B90" s="5"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -1473,7 +1625,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -1483,7 +1635,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -1493,7 +1645,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
+      <c r="B93" s="5"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -1503,7 +1655,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -1513,7 +1665,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
+      <c r="B95" s="5"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -1523,7 +1675,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
+      <c r="B96" s="5"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -1533,7 +1685,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
+      <c r="B97" s="5"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -1543,7 +1695,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
+      <c r="B98" s="5"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -1553,7 +1705,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
+      <c r="B99" s="5"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -1563,7 +1715,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -1572,6 +1724,7 @@
       <c r="H100" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C100" xr:uid="{A7689D3E-5636-4C37-A46F-62AF143F7CB9}">
       <formula1>"MIS COMPROBANTES,PORTAL IVA"</formula1>
@@ -1581,6 +1734,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lista de Archivos.xlsx
+++ b/Lista de Archivos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Python\Scripts\Nacional-Fixer-Comprobantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD45EB4-59FD-4ACA-AA0B-35450A256E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E582BA-4079-4C8D-811E-9632F25DCF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,12 +238,6 @@
     <t>PORTAL IVA</t>
   </si>
   <si>
-    <t>C:\Users\ABP\Desktop\Test\Mis Comrpobantes Emitidos.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\ABP\Desktop\Test\Mis Comrpobantes Recibidos.csv</t>
-  </si>
-  <si>
     <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado 1.csv</t>
   </si>
   <si>
@@ -254,6 +248,12 @@
   </si>
   <si>
     <t>C:\Users\ABP\Desktop\Test\Procesado\Test Procesado PIVA 4.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Mis Comprobantes Emitidos.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\ABP\Desktop\Test\Mis Comprobantes Recibidos.csv</t>
   </si>
 </sst>
 </file>
@@ -652,9 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -695,7 +693,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>0.05</v>
@@ -707,7 +705,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -715,7 +713,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>0.05</v>
@@ -727,7 +725,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -747,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -767,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
